--- a/docs/图解.xlsx
+++ b/docs/图解.xlsx
@@ -20936,6 +20936,1864 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>515620</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>134620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="椭圆 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1132840" y="39453820"/>
+          <a:ext cx="775970" cy="775970"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>null</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>55880</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>214630</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>168910</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="椭圆 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524760" y="39443660"/>
+          <a:ext cx="775970" cy="775970"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>494030</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>181610</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="椭圆 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4038600" y="39456360"/>
+          <a:ext cx="775970" cy="775970"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>187960</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>346710</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="椭圆 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5742940" y="39507160"/>
+          <a:ext cx="775970" cy="775970"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>55880</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>214630</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>24130</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="椭圆 85"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7462520" y="39481760"/>
+          <a:ext cx="775970" cy="775970"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>55880</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>156845</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="直接箭头连接符 86"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="71" idx="6"/>
+          <a:endCxn id="77" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1908810" y="39831645"/>
+          <a:ext cx="615950" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>214630</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>159385</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="直接箭头连接符 87"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="6"/>
+          <a:endCxn id="78" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3300730" y="39831645"/>
+          <a:ext cx="737870" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>494030</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>159385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>187960</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>27305</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="直接箭头连接符 88"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="78" idx="6"/>
+          <a:endCxn id="79" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4814570" y="39844345"/>
+          <a:ext cx="928370" cy="50800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>346710</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>55880</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>27305</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="直接箭头连接符 89"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="79" idx="6"/>
+          <a:endCxn id="86" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6518910" y="39869745"/>
+          <a:ext cx="943610" cy="25400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>214630</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="直接箭头连接符 90"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="86" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8238490" y="39860220"/>
+          <a:ext cx="577850" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>530860</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>327025</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>43180</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="92" name="组合 91"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9171940" y="38531800"/>
+          <a:ext cx="413385" cy="647700"/>
+          <a:chOff x="5948" y="14840"/>
+          <a:chExt cx="651" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="93" name="直接箭头连接符 92"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="6176" y="15272"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="94" name="文本框 93"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5948" y="14840"/>
+            <a:ext cx="651" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>cur</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>162560</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="95" name="组合 94"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1397000" y="38719760"/>
+          <a:ext cx="464820" cy="647700"/>
+          <a:chOff x="3624" y="14772"/>
+          <a:chExt cx="854" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="96" name="直接箭头连接符 95"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3936" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="97" name="文本框 96"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3624" y="14772"/>
+            <a:ext cx="855" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>head</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>369570</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="98" name="组合 97"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3566160" y="38084760"/>
+          <a:ext cx="506730" cy="647700"/>
+          <a:chOff x="3624" y="14772"/>
+          <a:chExt cx="930" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="99" name="直接箭头连接符 98"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3936" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="100" name="文本框 99"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3624" y="14772"/>
+            <a:ext cx="930" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>prev</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2264410" cy="822325"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="文本框 100"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="38046660"/>
+          <a:ext cx="2264410" cy="822325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>根据题解来看</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>这个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>index</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的合理范围是在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[0,size-1]</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>也就是说这个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>节点的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>index</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>最后的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>节点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>index</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -21191,8 +23049,8 @@
   <sheetPr/>
   <dimension ref="I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C181" workbookViewId="0">
-      <selection activeCell="Q175" sqref="Q175"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="P224" sqref="P224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/docs/图解.xlsx
+++ b/docs/图解.xlsx
@@ -22794,6 +22794,5204 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>78740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>123190</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="椭圆 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1678940" y="43055540"/>
+          <a:ext cx="775970" cy="775970"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>143510</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>113030</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="椭圆 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3070860" y="43045380"/>
+          <a:ext cx="775970" cy="775970"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>264160</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>422910</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="椭圆 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4584700" y="43058080"/>
+          <a:ext cx="775970" cy="775970"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>116840</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>275590</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>176530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="椭圆 101"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6289040" y="43108880"/>
+          <a:ext cx="775970" cy="775970"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>143510</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>151130</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="椭圆 102"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8008620" y="43083480"/>
+          <a:ext cx="775970" cy="775970"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>90805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="直接箭头连接符 103"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="6"/>
+          <a:endCxn id="63" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2454910" y="43433365"/>
+          <a:ext cx="615950" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>143510</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>90805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>264160</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>103505</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="直接箭头连接符 104"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="63" idx="6"/>
+          <a:endCxn id="67" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3846830" y="43433365"/>
+          <a:ext cx="737870" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>422910</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>103505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>116840</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="直接箭头连接符 105"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="67" idx="6"/>
+          <a:endCxn id="102" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5360670" y="43446065"/>
+          <a:ext cx="928370" cy="50800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>275590</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>128905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="直接箭头连接符 106"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="102" idx="6"/>
+          <a:endCxn id="103" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7065010" y="43471465"/>
+          <a:ext cx="943610" cy="25400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>143510</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>119380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104140</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>128905</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="直接箭头连接符 107"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="103" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8784590" y="43461940"/>
+          <a:ext cx="577850" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>354330</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="109" name="组合 108"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="464820" y="42321480"/>
+          <a:ext cx="506730" cy="647700"/>
+          <a:chOff x="3624" y="14772"/>
+          <a:chExt cx="932" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="177" name="直接箭头连接符 176"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3936" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="214" name="文本框 213"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3624" y="14772"/>
+            <a:ext cx="932" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>prev</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>607060</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>403225</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>149860</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="215" name="组合 214"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1841500" y="42296080"/>
+          <a:ext cx="413385" cy="647700"/>
+          <a:chOff x="3624" y="14772"/>
+          <a:chExt cx="760" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="216" name="直接箭头连接符 215"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3936" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="229" name="文本框 228"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3624" y="14772"/>
+            <a:ext cx="760" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>cur</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>208280</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>69215</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>154940</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="230" name="组合 229"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3294380" y="42301160"/>
+          <a:ext cx="478155" cy="647700"/>
+          <a:chOff x="3624" y="14772"/>
+          <a:chExt cx="879" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="231" name="直接箭头连接符 230"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3936" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="232" name="文本框 231"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3624" y="14772"/>
+            <a:ext cx="879" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>tmp</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="233" name="椭圆 232"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1813560" y="46001940"/>
+          <a:ext cx="775970" cy="775970"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>119380</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>278130</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="234" name="椭圆 233"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3205480" y="45991780"/>
+          <a:ext cx="775970" cy="775970"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>398780</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>557530</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="235" name="椭圆 234"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4719320" y="46004480"/>
+          <a:ext cx="775970" cy="775970"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>410210</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>13970</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="236" name="椭圆 235"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6423660" y="46055280"/>
+          <a:ext cx="775970" cy="775970"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>119380</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>278130</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="237" name="椭圆 236"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8143240" y="46029880"/>
+          <a:ext cx="775970" cy="775970"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>278130</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>398780</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="239" name="直接箭头连接符 238"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="234" idx="6"/>
+          <a:endCxn id="235" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3981450" y="46379765"/>
+          <a:ext cx="737870" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>557530</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="240" name="直接箭头连接符 239"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="235" idx="6"/>
+          <a:endCxn id="236" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5495290" y="46392465"/>
+          <a:ext cx="928370" cy="50800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>410210</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>119380</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="241" name="直接箭头连接符 240"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="236" idx="6"/>
+          <a:endCxn id="237" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7199630" y="46417865"/>
+          <a:ext cx="943610" cy="25400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>278130</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238760</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="242" name="直接箭头连接符 241"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="237" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8919210" y="46408340"/>
+          <a:ext cx="577850" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>599440</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>96520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="243" name="组合 242"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="599440" y="45267880"/>
+          <a:ext cx="506730" cy="647700"/>
+          <a:chOff x="3624" y="14772"/>
+          <a:chExt cx="932" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="244" name="直接箭头连接符 243"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3936" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="245" name="文本框 244"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3624" y="14772"/>
+            <a:ext cx="932" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>prev</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>124460</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>537845</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>170180</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="246" name="组合 245"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1976120" y="45242480"/>
+          <a:ext cx="413385" cy="647700"/>
+          <a:chOff x="3624" y="14772"/>
+          <a:chExt cx="760" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="247" name="直接箭头连接符 246"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3936" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="248" name="文本框 247"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3624" y="14772"/>
+            <a:ext cx="760" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>cur</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203835</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="249" name="组合 248"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3429000" y="45247560"/>
+          <a:ext cx="478155" cy="647700"/>
+          <a:chOff x="3624" y="14772"/>
+          <a:chExt cx="879" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="250" name="直接箭头连接符 249"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3936" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="251" name="文本框 250"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3624" y="14772"/>
+            <a:ext cx="879" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>tmp</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>121285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="252" name="曲线连接符 251"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="693420" y="46389925"/>
+          <a:ext cx="1896110" cy="15875"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -12559"/>
+            <a:gd name="adj2" fmla="val 6536000"/>
+            <a:gd name="adj3" fmla="val 94541"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>599440</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>140970</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="253" name="椭圆 252"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1833880" y="48651160"/>
+          <a:ext cx="775970" cy="775970"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>39370</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="254" name="椭圆 253"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3225800" y="48641000"/>
+          <a:ext cx="775970" cy="775970"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>52070</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="255" name="椭圆 254"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4739640" y="48653700"/>
+          <a:ext cx="775970" cy="775970"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>271780</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>58420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>430530</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="256" name="椭圆 255"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6443980" y="48704500"/>
+          <a:ext cx="775970" cy="775970"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>77470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="257" name="椭圆 256"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8163560" y="48679100"/>
+          <a:ext cx="775970" cy="775970"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>29845</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="258" name="直接箭头连接符 257"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="254" idx="6"/>
+          <a:endCxn id="255" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4001770" y="49028985"/>
+          <a:ext cx="737870" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>29845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>271780</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>80645</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="259" name="直接箭头连接符 258"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="255" idx="6"/>
+          <a:endCxn id="256" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5515610" y="49041685"/>
+          <a:ext cx="928370" cy="50800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>430530</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>80645</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="260" name="直接箭头连接符 259"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="256" idx="6"/>
+          <a:endCxn id="257" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7219950" y="49067085"/>
+          <a:ext cx="943610" cy="25400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="261" name="直接箭头连接符 260"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="257" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8939530" y="49057560"/>
+          <a:ext cx="577850" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>105410</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="262" name="组合 261"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2067560" y="47962820"/>
+          <a:ext cx="506730" cy="647700"/>
+          <a:chOff x="3624" y="14772"/>
+          <a:chExt cx="932" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="263" name="直接箭头连接符 262"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3936" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="264" name="文本框 263"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3624" y="14772"/>
+            <a:ext cx="932" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>prev</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="265" name="组合 264"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3489960" y="47990760"/>
+          <a:ext cx="413385" cy="647700"/>
+          <a:chOff x="3624" y="14772"/>
+          <a:chExt cx="760" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="266" name="直接箭头连接符 265"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3936" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="267" name="文本框 266"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3624" y="14772"/>
+            <a:ext cx="760" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>cur</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>81280</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>559435</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>119380</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="268" name="组合 267"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3784600" y="47934880"/>
+          <a:ext cx="478155" cy="647700"/>
+          <a:chOff x="3624" y="14772"/>
+          <a:chExt cx="879" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="269" name="直接箭头连接符 268"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3936" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="270" name="文本框 269"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3624" y="14772"/>
+            <a:ext cx="879" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>tmp</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>96520</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>27305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>140970</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>43180</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="271" name="曲线连接符 270"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="713740" y="49039145"/>
+          <a:ext cx="1896110" cy="15875"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -12559"/>
+            <a:gd name="adj2" fmla="val 6536000"/>
+            <a:gd name="adj3" fmla="val 94541"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -23049,8 +28247,8 @@
   <sheetPr/>
   <dimension ref="I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="P224" sqref="P224"/>
+    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="Q243" sqref="Q243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/docs/图解.xlsx
+++ b/docs/图解.xlsx
@@ -27992,6 +27992,3833 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>405765</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>145415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>564515</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>6985</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="238" name="椭圆 237"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2874645" y="57569735"/>
+          <a:ext cx="775970" cy="775970"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>135255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>105410</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>179705</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="272" name="椭圆 271"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="57559575"/>
+          <a:ext cx="775970" cy="775970"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>226060</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>147955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>384810</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="273" name="椭圆 272"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5781040" y="57572275"/>
+          <a:ext cx="775970" cy="775970"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>72390</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>231140</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="274" name="椭圆 273"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7479030" y="57626250"/>
+          <a:ext cx="775970" cy="775970"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>176530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>105410</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="275" name="椭圆 274"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9204960" y="57600850"/>
+          <a:ext cx="775970" cy="775970"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>564515</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>156845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>563245</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>167005</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="276" name="直接箭头连接符 275"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="238" idx="6"/>
+          <a:endCxn id="272" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3650615" y="57946925"/>
+          <a:ext cx="615950" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>99695</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>156845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>220345</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>168910</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="277" name="直接箭头连接符 276"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="272" idx="6"/>
+          <a:endCxn id="273" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5037455" y="57946925"/>
+          <a:ext cx="737870" cy="12065"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>384810</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>168910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>78740</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>37465</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="278" name="直接箭头连接符 277"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="273" idx="6"/>
+          <a:endCxn id="274" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6557010" y="57958990"/>
+          <a:ext cx="928370" cy="51435"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>243205</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>14605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>569595</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="279" name="直接箭头连接符 278"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="274" idx="6"/>
+          <a:endCxn id="275" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8267065" y="57987565"/>
+          <a:ext cx="943610" cy="25400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>59055</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="280" name="直接箭头连接符 279"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="275" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9973945" y="57974865"/>
+          <a:ext cx="577850" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>46990</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>553720</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>153035</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="281" name="组合 280"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1281430" y="56929655"/>
+          <a:ext cx="506730" cy="647700"/>
+          <a:chOff x="3624" y="14772"/>
+          <a:chExt cx="932" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="282" name="直接箭头连接符 281"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3936" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="283" name="文本框 282"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3624" y="14772"/>
+            <a:ext cx="932" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>prev</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>189865</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="284" name="组合 283"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10886440" y="56949975"/>
+          <a:ext cx="413385" cy="647700"/>
+          <a:chOff x="3624" y="14772"/>
+          <a:chExt cx="760" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="285" name="直接箭头连接符 284"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3936" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="286" name="文本框 285"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3624" y="14772"/>
+            <a:ext cx="760" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>cur</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>281305</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="492760" cy="822325"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="290" name="文本框 289"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5836285" y="52462430"/>
+          <a:ext cx="492760" cy="822325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>n = 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>n = 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>n = 4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>n  = 5</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>594995</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>52705</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1275715" cy="1004570"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="291" name="文本框 290"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7384415" y="52539265"/>
+          <a:ext cx="1275715" cy="1004570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>每轮做的事：</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>while(cur != null)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>增加长度</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>size</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>移动</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>cur</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（可能移动</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>prev</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>172085</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3851910" cy="639445"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="292" name="文本框 291"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5109845" y="58887360"/>
+          <a:ext cx="3851910" cy="639445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>上例中，如果</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>n == 5 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是比较特殊的，此时</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>prev</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>还是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>null</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>就不能用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>prev.next = prev.next.next</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>来进行删除倒数第</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>n</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>个节点</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（该特殊请况特殊处理即可）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>29845</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2669540" cy="836295"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="293" name="文本框 292"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2644140" y="52699285"/>
+          <a:ext cx="2669540" cy="836295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>核心思路：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>“</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>滑动窗口</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>”</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（一定长度）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>想象有这样一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>“</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>一定长度的窗口</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>”</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>在移动</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>就把</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>“</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>删除倒数第几个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>”</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的问题成功转化了</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>做到了一次遍历完成删除</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>382905</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>71755</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1375410" cy="273685"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="294" name="文本框 293"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1617345" y="57313195"/>
+          <a:ext cx="1375410" cy="273685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>演示的是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>n=5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的情况</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>439420</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>598170</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="295" name="椭圆 294"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2908300" y="53930550"/>
+          <a:ext cx="775970" cy="775970"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>597535</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>153670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>139065</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="296" name="椭圆 295"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4300855" y="53920390"/>
+          <a:ext cx="775970" cy="775970"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>166370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="297" name="椭圆 296"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5815330" y="53933090"/>
+          <a:ext cx="775970" cy="775970"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>113030</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>271780</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="298" name="椭圆 297"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7519670" y="53984525"/>
+          <a:ext cx="775970" cy="775970"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>598170</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="299" name="椭圆 298"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9239250" y="53959125"/>
+          <a:ext cx="775970" cy="775970"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>598170</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>176530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="300" name="直接箭头连接符 299"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="295" idx="6"/>
+          <a:endCxn id="296" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3684270" y="54309010"/>
+          <a:ext cx="615950" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>176530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="301" name="直接箭头连接符 300"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="296" idx="6"/>
+          <a:endCxn id="297" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5077460" y="54309010"/>
+          <a:ext cx="737870" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>417830</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>111760</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="302" name="直接箭头连接符 301"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="297" idx="6"/>
+          <a:endCxn id="298" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6590030" y="54324885"/>
+          <a:ext cx="928370" cy="50800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>271780</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>598170</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>57785</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="303" name="直接箭头连接符 302"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="298" idx="6"/>
+          <a:endCxn id="299" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8295640" y="54347745"/>
+          <a:ext cx="943610" cy="25400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>138430</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="304" name="直接箭头连接符 303"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="299" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10013950" y="54338220"/>
+          <a:ext cx="577850" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>64135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>372110</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>163195</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="305" name="组合 304"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6037580" y="53282215"/>
+          <a:ext cx="506730" cy="647700"/>
+          <a:chOff x="3624" y="14772"/>
+          <a:chExt cx="932" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="306" name="直接箭头连接符 305"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3936" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="307" name="文本框 306"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3624" y="14772"/>
+            <a:ext cx="932" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>prev</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>427355</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>90170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>223520</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="308" name="组合 307"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10920095" y="53308250"/>
+          <a:ext cx="413385" cy="647700"/>
+          <a:chOff x="3624" y="14772"/>
+          <a:chExt cx="760" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="309" name="直接箭头连接符 308"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3936" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="310" name="文本框 309"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3624" y="14772"/>
+            <a:ext cx="760" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>cur</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>415290</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1372870" cy="277495"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="311" name="文本框 310"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1649730" y="53669565"/>
+          <a:ext cx="1372870" cy="277495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>演示的是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>n=2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的情况</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>77470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="312" name="矩形 311"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5808980" y="53295550"/>
+          <a:ext cx="5466080" cy="1821180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -28247,8 +32074,8 @@
   <sheetPr/>
   <dimension ref="I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="Q243" sqref="Q243"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="P306" sqref="P306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/docs/图解.xlsx
+++ b/docs/图解.xlsx
@@ -43511,6 +43511,3916 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>486</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>489</xdr:row>
+      <xdr:rowOff>116840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="381" name="矩形 380"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2125980" y="88912700"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>486</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>489</xdr:row>
+      <xdr:rowOff>116840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="382" name="矩形 381"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2750820" y="88912700"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>302260</xdr:colOff>
+      <xdr:row>486</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>489</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="383" name="矩形 382"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3388360" y="88902540"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>307340</xdr:colOff>
+      <xdr:row>486</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>322580</xdr:colOff>
+      <xdr:row>489</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="384" name="矩形 383"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4010660" y="88907620"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>486</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>489</xdr:row>
+      <xdr:rowOff>116840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="385" name="矩形 384"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="88912700"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>486</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>370840</xdr:colOff>
+      <xdr:row>489</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="386" name="矩形 385"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5293360" y="88925400"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>481</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>48260</xdr:colOff>
+      <xdr:row>485</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="388" name="组合 387"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2293620" y="88140540"/>
+          <a:ext cx="223520" cy="647700"/>
+          <a:chOff x="3624" y="14772"/>
+          <a:chExt cx="410" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="389" name="直接箭头连接符 388"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3824" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="390" name="文本框 389"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3624" y="14772"/>
+            <a:ext cx="410" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>i</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>482</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>194945</xdr:colOff>
+      <xdr:row>486</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="391" name="组合 390"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5524500" y="88270080"/>
+          <a:ext cx="225425" cy="647700"/>
+          <a:chOff x="3622" y="14772"/>
+          <a:chExt cx="413" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="392" name="直接箭头连接符 391"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3824" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="409" name="文本框 408"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3622" y="14772"/>
+            <a:ext cx="413" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>j</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>493</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>501</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="410" name="文本框 409"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1851660" y="90220800"/>
+          <a:ext cx="4815840" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>HashSet&lt;Integer&gt; set = new HashSet&lt;&gt;()  ;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>i</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>不动的第一趟循环过程：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>set:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>｛</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>, 2, 4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>｝（红色表示被</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>remove</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>res</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>：｛｛</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>-1, 1, 0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>｝，｛</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>-1, 2, -1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>｝｝</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66040</xdr:colOff>
+      <xdr:row>511</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>81280</xdr:colOff>
+      <xdr:row>514</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="411" name="矩形 410"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1917700" y="93466920"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>73660</xdr:colOff>
+      <xdr:row>511</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>514</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="417" name="矩形 416"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2542540" y="93466920"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>93980</xdr:colOff>
+      <xdr:row>511</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>109220</xdr:colOff>
+      <xdr:row>514</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="418" name="矩形 417"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3180080" y="93456760"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>511</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>514</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="419" name="矩形 418"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3802380" y="93461840"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>119380</xdr:colOff>
+      <xdr:row>511</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>134620</xdr:colOff>
+      <xdr:row>514</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="420" name="矩形 419"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4439920" y="93466920"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>147320</xdr:colOff>
+      <xdr:row>511</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>162560</xdr:colOff>
+      <xdr:row>514</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="421" name="矩形 420"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5085080" y="93479620"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>248920</xdr:colOff>
+      <xdr:row>506</xdr:row>
+      <xdr:rowOff>180340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>510</xdr:row>
+      <xdr:rowOff>96520</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="422" name="组合 421"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3335020" y="92717620"/>
+          <a:ext cx="223520" cy="647700"/>
+          <a:chOff x="3624" y="14772"/>
+          <a:chExt cx="410" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="423" name="直接箭头连接符 422"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3824" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="424" name="文本框 423"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3624" y="14772"/>
+            <a:ext cx="410" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>i</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>309880</xdr:colOff>
+      <xdr:row>507</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>535305</xdr:colOff>
+      <xdr:row>510</xdr:row>
+      <xdr:rowOff>134620</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="425" name="组合 424"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5247640" y="92755720"/>
+          <a:ext cx="225425" cy="647700"/>
+          <a:chOff x="3622" y="14772"/>
+          <a:chExt cx="413" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="426" name="直接箭头连接符 425"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3824" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="427" name="文本框 426"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3622" y="14772"/>
+            <a:ext cx="413" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>j</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>408940</xdr:colOff>
+      <xdr:row>518</xdr:row>
+      <xdr:rowOff>43180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>287020</xdr:colOff>
+      <xdr:row>525</xdr:row>
+      <xdr:rowOff>172720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="428" name="文本框 427"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1643380" y="94775020"/>
+          <a:ext cx="4815840" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>HashSet&lt;Integer&gt; set = new HashSet&lt;&gt;()  ;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>i</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>不动的第二趟循环过程：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>set:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>｛</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>1, 2, 4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>｝（红色表示被</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>remove</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>res</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>：｛无新加的｝</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>488</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="273685"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="429" name="文本框 428"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200900" y="89275920"/>
+          <a:ext cx="309880" cy="273685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>486</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>487045</xdr:colOff>
+      <xdr:row>499</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="430" name="文本框 429"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7193280" y="88963500"/>
+          <a:ext cx="5020945" cy="2324100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>规则为：</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>1. i</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>从头开始遍历，但要去重</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>+nums[i]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>已大于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>的话，结束遍历（不可能组成三元组）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>2. j</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>i+1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>开始遍历（去重条件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>——</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>j+1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>开始的连续三个相同）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>对于每一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>i</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>j</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>的位置，</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>若</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>set</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>中已有（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>nums[i]+nums[j]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>）），</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>则：删除</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>set</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>中这个数，</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>将｛</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>nums[i]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>nums[j]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>-(nums[i]+nums[j])</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>｝作为一个结果存入</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>195580</xdr:colOff>
+      <xdr:row>511</xdr:row>
+      <xdr:rowOff>149860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>278765</xdr:colOff>
+      <xdr:row>524</xdr:row>
+      <xdr:rowOff>96520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="431" name="文本框 430"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6985000" y="93601540"/>
+          <a:ext cx="5020945" cy="2324100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>规则为：</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>1. i</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>从头开始遍历，但要去重</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>+nums[i]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>已大于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>的话，结束遍历（不可能组成三元组）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>2. j</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>i+1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>开始遍历（去重条件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>——</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>j+1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>开始的连续三个相同）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>对于每一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>i</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>j</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>的位置，</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>若</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>set</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>中已有（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>nums[i]+nums[j]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>）），</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>则：删除</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>set</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>中这个数，</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>将｛</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>nums[i]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>nums[j]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>-(nums[i]+nums[j])</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>｝作为一个结果存入</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -43766,8 +47676,8 @@
   <sheetPr/>
   <dimension ref="I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A459" workbookViewId="0">
-      <selection activeCell="N478" sqref="N478"/>
+    <sheetView tabSelected="1" topLeftCell="C511" workbookViewId="0">
+      <selection activeCell="P532" sqref="P532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/docs/图解.xlsx
+++ b/docs/图解.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18288" windowHeight="9767"/>
+    <workbookView windowWidth="22188" windowHeight="9767"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47421,6 +47421,1830 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>534</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>537</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="442" name="矩形 441"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2232660" y="97713800"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>534</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>537</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="443" name="矩形 442"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="97713800"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>408940</xdr:colOff>
+      <xdr:row>534</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>424180</xdr:colOff>
+      <xdr:row>537</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="444" name="矩形 443"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3495040" y="97703640"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>414020</xdr:colOff>
+      <xdr:row>534</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>429260</xdr:colOff>
+      <xdr:row>537</xdr:row>
+      <xdr:rowOff>134620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="445" name="矩形 444"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4117340" y="97708720"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>534</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>537</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="446" name="矩形 445"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4754880" y="97713800"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>462280</xdr:colOff>
+      <xdr:row>534</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>477520</xdr:colOff>
+      <xdr:row>537</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="447" name="矩形 446"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400040" y="97726500"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>497840</xdr:colOff>
+      <xdr:row>534</xdr:row>
+      <xdr:rowOff>58420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>513080</xdr:colOff>
+      <xdr:row>537</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="448" name="矩形 447"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6052820" y="97716340"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>529</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>162560</xdr:colOff>
+      <xdr:row>533</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="449" name="组合 448"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2407920" y="96903540"/>
+          <a:ext cx="223520" cy="647700"/>
+          <a:chOff x="3624" y="14772"/>
+          <a:chExt cx="410" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="450" name="直接箭头连接符 449"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3824" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="451" name="文本框 450"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3624" y="14772"/>
+            <a:ext cx="410" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>i</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>530</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>379730</xdr:colOff>
+      <xdr:row>533</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="452" name="组合 451"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3040380" y="96979740"/>
+          <a:ext cx="425450" cy="647700"/>
+          <a:chOff x="3624" y="14772"/>
+          <a:chExt cx="782" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="453" name="直接箭头连接符 452"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3936" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="454" name="文本框 453"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3624" y="14772"/>
+            <a:ext cx="782" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>left</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>529</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>537845</xdr:colOff>
+      <xdr:row>533</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="455" name="组合 454"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6187440" y="96918780"/>
+          <a:ext cx="522605" cy="647700"/>
+          <a:chOff x="3624" y="14772"/>
+          <a:chExt cx="962" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="456" name="直接箭头连接符 455"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3936" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="457" name="文本框 456"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3624" y="14772"/>
+            <a:ext cx="962" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>right</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -47676,7 +49500,7 @@
   <sheetPr/>
   <dimension ref="I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C511" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C517" workbookViewId="0">
       <selection activeCell="P532" sqref="P532"/>
     </sheetView>
   </sheetViews>

--- a/docs/图解.xlsx
+++ b/docs/图解.xlsx
@@ -26,6 +26,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49245,6 +49253,2032 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>489585</xdr:colOff>
+      <xdr:row>550</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>554</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="377" name="矩形 376"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2341245" y="100730050"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>497205</xdr:colOff>
+      <xdr:row>550</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>512445</xdr:colOff>
+      <xdr:row>554</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="378" name="矩形 377"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2966085" y="100730050"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>550</xdr:row>
+      <xdr:rowOff>135890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>554</xdr:row>
+      <xdr:rowOff>36830</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="379" name="矩形 378"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3604260" y="100719890"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523240</xdr:colOff>
+      <xdr:row>550</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>538480</xdr:colOff>
+      <xdr:row>554</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="380" name="矩形 379"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4226560" y="100724970"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>543560</xdr:colOff>
+      <xdr:row>550</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>554</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="387" name="矩形 386"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4864100" y="100730050"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>550</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>554</xdr:row>
+      <xdr:rowOff>56515</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="432" name="矩形 431"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5509260" y="100739575"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>550</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4445</xdr:colOff>
+      <xdr:row>554</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="433" name="矩形 432"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6161405" y="100732590"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>546</xdr:row>
+      <xdr:rowOff>67945</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>271145</xdr:colOff>
+      <xdr:row>549</xdr:row>
+      <xdr:rowOff>167005</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="434" name="组合 433"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2516505" y="99920425"/>
+          <a:ext cx="223520" cy="647700"/>
+          <a:chOff x="3624" y="14772"/>
+          <a:chExt cx="410" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="435" name="直接箭头连接符 434"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3824" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="436" name="文本框 435"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3624" y="14772"/>
+            <a:ext cx="410" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>i</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>135255</xdr:colOff>
+      <xdr:row>546</xdr:row>
+      <xdr:rowOff>99695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>560705</xdr:colOff>
+      <xdr:row>550</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="437" name="组合 436"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3838575" y="99952175"/>
+          <a:ext cx="425450" cy="647700"/>
+          <a:chOff x="3624" y="14772"/>
+          <a:chExt cx="782" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="438" name="直接箭头连接符 437"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3936" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="439" name="文本框 438"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3624" y="14772"/>
+            <a:ext cx="782" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>left</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>546</xdr:row>
+      <xdr:rowOff>83185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>29210</xdr:colOff>
+      <xdr:row>549</xdr:row>
+      <xdr:rowOff>182245</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="440" name="组合 439"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6296025" y="99935665"/>
+          <a:ext cx="522605" cy="647700"/>
+          <a:chOff x="3624" y="14772"/>
+          <a:chExt cx="962" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="441" name="直接箭头连接符 440"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3936" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="458" name="文本框 457"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3624" y="14772"/>
+            <a:ext cx="962" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>right</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>546</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>549</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="459" name="组合 458"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3209925" y="99900740"/>
+          <a:ext cx="225425" cy="647700"/>
+          <a:chOff x="3622" y="14772"/>
+          <a:chExt cx="413" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="460" name="直接箭头连接符 459"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3824" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="461" name="文本框 460"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3622" y="14772"/>
+            <a:ext cx="413" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>j</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -49498,16 +51532,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="I57"/>
+  <dimension ref="I57:N533"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C517" workbookViewId="0">
-      <selection activeCell="P532" sqref="P532"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A540" workbookViewId="0">
+      <selection activeCell="R547" sqref="R547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="57" spans="9:9">
       <c r="I57" s="1"/>
+    </row>
+    <row r="533" spans="14:14">
+      <c r="N533" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/图解.xlsx
+++ b/docs/图解.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9767"/>
+    <workbookView windowWidth="18288" windowHeight="9767"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51279,6 +51279,3672 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>559</xdr:row>
+      <xdr:rowOff>99695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>462915</xdr:colOff>
+      <xdr:row>563</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="462" name="文本框 461"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3680460" y="102329615"/>
+          <a:ext cx="1720215" cy="730885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>图解</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>KMP</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>str1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>leetcode</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>str2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>leeto</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>570865</xdr:colOff>
+      <xdr:row>564</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>586105</xdr:colOff>
+      <xdr:row>568</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="463" name="矩形 462"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3039745" y="103309420"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>564</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>593090</xdr:colOff>
+      <xdr:row>568</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="464" name="矩形 463"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3663950" y="103309420"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>596265</xdr:colOff>
+      <xdr:row>564</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>611505</xdr:colOff>
+      <xdr:row>568</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="465" name="矩形 464"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4299585" y="103317675"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>614680</xdr:colOff>
+      <xdr:row>564</xdr:row>
+      <xdr:rowOff>178435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>568</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="466" name="矩形 465"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4935220" y="103322755"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>13335</xdr:colOff>
+      <xdr:row>564</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>568</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="467" name="矩形 466"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5568315" y="103306880"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>124460</xdr:colOff>
+      <xdr:row>565</xdr:row>
+      <xdr:rowOff>50165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>567</xdr:row>
+      <xdr:rowOff>83185</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="470" name="文本框 469"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1976120" y="103377365"/>
+          <a:ext cx="670560" cy="398780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>前缀表</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>573</xdr:row>
+      <xdr:rowOff>2540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>576</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="471" name="矩形 470"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1851660" y="104792780"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>l</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>573</xdr:row>
+      <xdr:rowOff>2540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>576</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="472" name="矩形 471"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="104792780"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>e</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>26670</xdr:colOff>
+      <xdr:row>573</xdr:row>
+      <xdr:rowOff>8255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>41910</xdr:colOff>
+      <xdr:row>576</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="473" name="矩形 472"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3112770" y="104798495"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>e</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>573</xdr:row>
+      <xdr:rowOff>13335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>576</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="474" name="矩形 473"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3749040" y="104803575"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>t</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>59690</xdr:colOff>
+      <xdr:row>573</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>74930</xdr:colOff>
+      <xdr:row>576</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="475" name="矩形 474"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4380230" y="104790240"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>c</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>81280</xdr:colOff>
+      <xdr:row>573</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>96520</xdr:colOff>
+      <xdr:row>576</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="476" name="矩形 475"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5019040" y="104805480"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>o</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>103505</xdr:colOff>
+      <xdr:row>573</xdr:row>
+      <xdr:rowOff>24130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>118745</xdr:colOff>
+      <xdr:row>576</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="477" name="矩形 476"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5658485" y="104814370"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>d</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>124460</xdr:colOff>
+      <xdr:row>573</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>576</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="478" name="矩形 477"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6296660" y="104809290"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>e</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>603885</xdr:colOff>
+      <xdr:row>579</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>583</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="479" name="矩形 478"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="106003725"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>l</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>611505</xdr:colOff>
+      <xdr:row>579</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>583</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="480" name="矩形 479"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2463165" y="106003725"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>e</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>13970</xdr:colOff>
+      <xdr:row>579</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>29210</xdr:colOff>
+      <xdr:row>583</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="481" name="矩形 480"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3100070" y="106009440"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>e</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>33655</xdr:colOff>
+      <xdr:row>579</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>48895</xdr:colOff>
+      <xdr:row>583</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="482" name="矩形 481"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3736975" y="106014520"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>t</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>46990</xdr:colOff>
+      <xdr:row>579</xdr:row>
+      <xdr:rowOff>113665</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>62230</xdr:colOff>
+      <xdr:row>583</xdr:row>
+      <xdr:rowOff>14605</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="483" name="矩形 482"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4367530" y="106001185"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>o</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>309880</xdr:colOff>
+      <xdr:row>569</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>573</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="484" name="组合 483"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4630420" y="104169210"/>
+          <a:ext cx="223520" cy="647700"/>
+          <a:chOff x="3624" y="14772"/>
+          <a:chExt cx="410" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="485" name="直接箭头连接符 484"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3824" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="486" name="文本框 485"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3624" y="14772"/>
+            <a:ext cx="410" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>i</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244475</xdr:colOff>
+      <xdr:row>576</xdr:row>
+      <xdr:rowOff>23495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>579</xdr:row>
+      <xdr:rowOff>122555</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="487" name="组合 486"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4565015" y="105362375"/>
+          <a:ext cx="225425" cy="647700"/>
+          <a:chOff x="3622" y="14772"/>
+          <a:chExt cx="413" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="488" name="直接箭头连接符 487"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3824" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="489" name="文本框 488"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3622" y="14772"/>
+            <a:ext cx="413" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>j</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -51534,8 +55200,8 @@
   <sheetPr/>
   <dimension ref="I57:N533"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A540" workbookViewId="0">
-      <selection activeCell="R547" sqref="R547"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A565" workbookViewId="0">
+      <selection activeCell="N578" sqref="N578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/docs/图解.xlsx
+++ b/docs/图解.xlsx
@@ -54945,6 +54945,1442 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>593</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>596</xdr:row>
+      <xdr:rowOff>92710</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="468" name="矩形 467"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1493520" y="108456730"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>593</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>596</xdr:row>
+      <xdr:rowOff>92710</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="469" name="矩形 468"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2118360" y="108456730"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285115</xdr:colOff>
+      <xdr:row>593</xdr:row>
+      <xdr:rowOff>13970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>300355</xdr:colOff>
+      <xdr:row>596</xdr:row>
+      <xdr:rowOff>97790</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="490" name="矩形 489"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2753995" y="108461810"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>303530</xdr:colOff>
+      <xdr:row>593</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>318770</xdr:colOff>
+      <xdr:row>596</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="491" name="矩形 490"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3389630" y="108466890"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>318135</xdr:colOff>
+      <xdr:row>593</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>596</xdr:row>
+      <xdr:rowOff>90170</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="492" name="矩形 491"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4021455" y="108454190"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>593</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>354330</xdr:colOff>
+      <xdr:row>596</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="493" name="矩形 492"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4659630" y="108468795"/>
+          <a:ext cx="632460" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>166370</xdr:colOff>
+      <xdr:row>589</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>389890</xdr:colOff>
+      <xdr:row>592</xdr:row>
+      <xdr:rowOff>103505</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="494" name="组合 493"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1400810" y="107721400"/>
+          <a:ext cx="223520" cy="647065"/>
+          <a:chOff x="3624" y="14772"/>
+          <a:chExt cx="410" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="495" name="直接箭头连接符 494"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3824" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="496" name="文本框 495"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3624" y="14772"/>
+            <a:ext cx="410" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>i</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>589</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>271145</xdr:colOff>
+      <xdr:row>592</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="512" name="组合 511"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1897380" y="107749340"/>
+          <a:ext cx="225425" cy="647700"/>
+          <a:chOff x="3622" y="14772"/>
+          <a:chExt cx="413" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="513" name="直接箭头连接符 512"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3824" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="514" name="文本框 513"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3622" y="14772"/>
+            <a:ext cx="413" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>j</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -55200,8 +56636,8 @@
   <sheetPr/>
   <dimension ref="I57:N533"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A565" workbookViewId="0">
-      <selection activeCell="N578" sqref="N578"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A585" workbookViewId="0">
+      <selection activeCell="K595" sqref="K595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
